--- a/docs/bijlages/Concurrentieanalysy.xlsx
+++ b/docs/bijlages/Concurrentieanalysy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quintenleysen/Documents/BAP/docs/bijlages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6D1A1A0-BE74-9B44-A732-0732B1C3251B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E468BA-F880-644D-8AE0-8AEB958F0F19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34200" yWindow="5000" windowWidth="27640" windowHeight="16940" xr2:uid="{EC1A4673-5107-7245-B6CD-E168D8422D51}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="21040" xr2:uid="{EC1A4673-5107-7245-B6CD-E168D8422D51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <r>
       <t xml:space="preserve">Huistijl: </t>
@@ -244,6 +244,15 @@
   </si>
   <si>
     <t>Functionaliteiten</t>
+  </si>
+  <si>
+    <t>Mobile friendly</t>
+  </si>
+  <si>
+    <t>App / Goed</t>
+  </si>
+  <si>
+    <t>App / Gemiddeld</t>
   </si>
 </sst>
 </file>
@@ -302,13 +311,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,7 +636,7 @@
   <dimension ref="C6:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G3" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -826,6 +836,21 @@
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
+      <c r="H16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
